--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-933863.5739953569</v>
+        <v>-940300.0985709438</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12845381.58486495</v>
+        <v>12844791.60547453</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>218.7698104371389</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.7514241195962</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226177</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104614796</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>200.8226186176412</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>185.6323775746765</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>128.96894100101</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>190.2243893962597</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968079</v>
+        <v>50.64353720722215</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>234.4250944642998</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>161.570115871172</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>170.8520874027938</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.5766037924164</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>11.22594592423861</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>100.1700338206136</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.42499474483525</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>135.2889964048744</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>19.3675460881073</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>182.9845999370945</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>197.8116665897037</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>286.9624415011847</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.59337250965187</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41.9086887209275</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -2144,7 +2144,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006889</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838874</v>
+        <v>24.17382596574964</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828886</v>
+        <v>52.06849973564977</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431719</v>
+        <v>70.57601873167809</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459959</v>
+        <v>55.7231469819605</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643932</v>
+        <v>41.29686219380022</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931843</v>
+        <v>41.22330424667933</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390857</v>
+        <v>42.9727556664466</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147783</v>
+        <v>53.79159358883874</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804988</v>
+        <v>41.14384575541078</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922181</v>
+        <v>18.98356133658271</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367773</v>
+        <v>9.882059701038628</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920504</v>
+        <v>88.00800320656595</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1094.532459878935</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="C2" t="n">
-        <v>1094.532459878935</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D2" t="n">
-        <v>1094.532459878935</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475491</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475491</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K2" t="n">
-        <v>188.145432303583</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>188.145432303583</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354848</v>
+        <v>914.0882813934877</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572947</v>
+        <v>1427.690960003175</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465275</v>
+        <v>1867.730560895504</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596797</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964318</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523735</v>
+        <v>1851.661735376336</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958333</v>
+        <v>1595.909005810935</v>
       </c>
       <c r="V2" t="n">
-        <v>1491.023168958333</v>
+        <v>1595.909005810935</v>
       </c>
       <c r="W2" t="n">
-        <v>1491.023168958333</v>
+        <v>1595.909005810935</v>
       </c>
       <c r="X2" t="n">
-        <v>1491.023168958333</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="Y2" t="n">
-        <v>1094.532459878935</v>
+        <v>1332.523728922454</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021406</v>
+        <v>556.1927859813143</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622328</v>
+        <v>405.5385555414065</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837131</v>
+        <v>275.4495881628868</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946009</v>
+        <v>139.0030972737745</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777327</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777327</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585114</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N3" t="n">
-        <v>1498.174658585114</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021348</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734587</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784296</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675947</v>
+        <v>887.3033373467683</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431019</v>
+        <v>707.9891204222756</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.8835333281968</v>
+        <v>397.4615056178179</v>
       </c>
       <c r="C4" t="n">
-        <v>386.678415394186</v>
+        <v>397.4615056178179</v>
       </c>
       <c r="D4" t="n">
-        <v>386.678415394186</v>
+        <v>397.4615056178179</v>
       </c>
       <c r="E4" t="n">
-        <v>386.678415394186</v>
+        <v>397.4615056178179</v>
       </c>
       <c r="F4" t="n">
-        <v>229.352480607159</v>
+        <v>240.1355708307909</v>
       </c>
       <c r="G4" t="n">
-        <v>229.352480607159</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865295</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865295</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T4" t="n">
-        <v>742.0915520194981</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="U4" t="n">
-        <v>742.0915520194981</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="V4" t="n">
-        <v>742.0915520194981</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="W4" t="n">
-        <v>742.0915520194981</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="X4" t="n">
-        <v>742.0915520194981</v>
+        <v>584.9689577134508</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.0915520194981</v>
+        <v>397.4615056178179</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>203.809162203501</v>
+        <v>456.6551341546188</v>
       </c>
       <c r="C5" t="n">
-        <v>203.809162203501</v>
+        <v>63.47963265754934</v>
       </c>
       <c r="D5" t="n">
-        <v>203.809162203501</v>
+        <v>63.47963265754934</v>
       </c>
       <c r="E5" t="n">
-        <v>203.809162203501</v>
+        <v>63.47963265754934</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>50.62559822793116</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222167</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>402.4780154222167</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>940.7368004323089</v>
+        <v>1407.408573112016</v>
       </c>
       <c r="N5" t="n">
-        <v>1468.548084069771</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465275</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596797</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964318</v>
+        <v>1870.655869043492</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523735</v>
+        <v>1647.155266602908</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958333</v>
+        <v>1391.402537037507</v>
       </c>
       <c r="V5" t="n">
-        <v>1491.023168958333</v>
+        <v>1049.295727741026</v>
       </c>
       <c r="W5" t="n">
-        <v>1120.024133926621</v>
+        <v>1049.295727741026</v>
       </c>
       <c r="X5" t="n">
-        <v>730.5715288596776</v>
+        <v>857.1498798660157</v>
       </c>
       <c r="Y5" t="n">
-        <v>334.0808197802788</v>
+        <v>857.1498798660157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.608572686801</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591874</v>
+        <v>921.5731989359438</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182855</v>
+        <v>1435.175877545631</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>522.9416385335921</v>
+        <v>342.8517260198149</v>
       </c>
       <c r="C7" t="n">
-        <v>522.9416385335921</v>
+        <v>342.8517260198149</v>
       </c>
       <c r="D7" t="n">
-        <v>367.3085254361068</v>
+        <v>342.8517260198149</v>
       </c>
       <c r="E7" t="n">
-        <v>211.7497132953094</v>
+        <v>342.8517260198149</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>342.8517260198149</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475491</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475491</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.13418548044</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.13418548044</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.13418548044</v>
       </c>
       <c r="W7" t="n">
-        <v>708.1496572248934</v>
+        <v>740.13418548044</v>
       </c>
       <c r="X7" t="n">
-        <v>708.1496572248934</v>
+        <v>506.0538632634231</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.1496572248934</v>
+        <v>342.8517260198149</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1723.774581050991</v>
+        <v>380.2043389737178</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.774581050991</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.333452267659</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2104.154988922119</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.154988922119</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.154988922119</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X8" t="n">
-        <v>2104.154988922119</v>
+        <v>1177.189793764514</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.774581050991</v>
+        <v>780.6990846851147</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081457</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379.0397195389182</v>
+        <v>725.6479314597394</v>
       </c>
       <c r="C10" t="n">
-        <v>379.0397195389182</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="D10" t="n">
-        <v>379.0397195389182</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="E10" t="n">
-        <v>379.0397195389182</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="F10" t="n">
-        <v>379.0397195389182</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>847.5781402990419</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>847.5781402990419</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>847.5781402990419</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>847.5781402990419</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>564.2477382302195</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>564.2477382302195</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>564.2477382302195</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1467.291089243225</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3073.203865261498</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2921.499537967109</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.543083547901</v>
+        <v>2827.282650873814</v>
       </c>
       <c r="V11" t="n">
-        <v>2737.543083547901</v>
+        <v>2827.282650873814</v>
       </c>
       <c r="W11" t="n">
-        <v>2438.340323662382</v>
+        <v>2690.627098949698</v>
       </c>
       <c r="X11" t="n">
-        <v>2120.683993741633</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.989559808428</v>
+        <v>2048.276335095744</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
         <v>1458.313011372373</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>315.2481622908437</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="C13" t="n">
-        <v>315.2481622908437</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="D13" t="n">
-        <v>231.4113243395523</v>
+        <v>411.5513789862251</v>
       </c>
       <c r="E13" t="n">
-        <v>147.6487873449487</v>
+        <v>327.7888419916215</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U13" t="n">
-        <v>1147.976935899547</v>
+        <v>988.1475398457734</v>
       </c>
       <c r="V13" t="n">
-        <v>953.7938658665653</v>
+        <v>793.9644698127914</v>
       </c>
       <c r="W13" t="n">
-        <v>742.2597389439368</v>
+        <v>582.430342890163</v>
       </c>
       <c r="X13" t="n">
-        <v>579.9756918731138</v>
+        <v>582.430342890163</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.659905835951</v>
+        <v>431.1145568530002</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.5154003182</v>
+        <v>1635.894626669077</v>
       </c>
       <c r="C14" t="n">
-        <v>1314.5154003182</v>
+        <v>1314.515400318201</v>
       </c>
       <c r="D14" t="n">
         <v>1000.870546681062</v>
@@ -5264,10 +5264,10 @@
         <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572337</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914308</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2556.972116723525</v>
+        <v>2906.146620973753</v>
       </c>
       <c r="W14" t="n">
-        <v>2257.769356838007</v>
+        <v>2606.943861088234</v>
       </c>
       <c r="X14" t="n">
-        <v>1967.908304816608</v>
+        <v>2289.287531167485</v>
       </c>
       <c r="Y14" t="n">
-        <v>1643.213870883403</v>
+        <v>1964.59309723428</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>286.4385749083269</v>
+        <v>347.7456042322048</v>
       </c>
       <c r="C16" t="n">
-        <v>286.4385749083269</v>
+        <v>347.7456042322048</v>
       </c>
       <c r="D16" t="n">
-        <v>286.4385749083269</v>
+        <v>263.9087662809135</v>
       </c>
       <c r="E16" t="n">
-        <v>286.4385749083269</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="F16" t="n">
-        <v>200.9089152674937</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G16" t="n">
-        <v>104.4511365131332</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>104.4511365131332</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840486</v>
+        <v>872.8795642628191</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614201</v>
+        <v>661.3454373401908</v>
       </c>
       <c r="X16" t="n">
-        <v>551.166104490597</v>
+        <v>499.0613902693676</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.8503184534343</v>
+        <v>347.7456042322048</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099314</v>
@@ -5534,7 +5534,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
         <v>3105.956385205777</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,28 +5671,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229933</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446697</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5738,10 +5738,10 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M21" t="n">
-        <v>689.8907773307967</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N21" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1862.189031132337</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,19 +5908,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
         <v>974.9038003296507</v>
@@ -5978,7 +5978,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,10 +6075,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6203,7 +6203,7 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6227,22 +6227,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485128</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6309,16 +6309,16 @@
         <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
-        <v>1504.441740534771</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>2157.335302368295</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6385,10 +6385,10 @@
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6476,10 +6476,10 @@
         <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1814.337859283253</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2219.95922799965</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463659</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057083</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230762</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835477</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667232</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770097</v>
+        <v>2658.656341426375</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901619</v>
+        <v>3118.49595413288</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042568</v>
+        <v>3303.341514273829</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939828</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>664.2362037203857</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210286</v>
+        <v>1292.007853347067</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1292.007853347067</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1808.528135938048</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2214.149504654445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965116</v>
+        <v>365.6713676929701</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918656</v>
+        <v>309.3853606404848</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237451</v>
+        <v>267.671358424525</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123123</v>
+        <v>226.0316571652529</v>
       </c>
       <c r="F34" t="n">
-        <v>204.14288975465</v>
+        <v>182.6248332597513</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834602</v>
+        <v>128.2898902407223</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431895</v>
+        <v>86.73045008374172</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076157</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234503</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067489</v>
+        <v>261.04229728727</v>
       </c>
       <c r="L34" t="n">
-        <v>514.809996007619</v>
+        <v>536.8220577360528</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729533</v>
+        <v>723.1136360743168</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831233</v>
+        <v>906.3032701055261</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872941</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649519</v>
+        <v>1300.536323498796</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.002557387755</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.10558445183</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250161</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395499</v>
+        <v>835.7257283273657</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000922</v>
+        <v>666.3144371400687</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124401</v>
+        <v>546.1532258045772</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584482</v>
+        <v>436.960275502746</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,10 +6959,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.690231197904</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7491,10 +7491,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7633905351325</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M42" t="n">
         <v>802.5350401618138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,7 +7573,7 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
         <v>623.4297566485498</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7731,19 +7731,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1862.189031132337</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222413</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>640.385254256214</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920139</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>359.8284946362945</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837483</v>
+        <v>611.1777065035417</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>458.3732307488491</v>
       </c>
       <c r="O3" t="n">
-        <v>366.411743167913</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920139</v>
       </c>
       <c r="O5" t="n">
-        <v>324.5151842882422</v>
+        <v>305.2720051970412</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,16 +8301,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837483</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>498.7953683138365</v>
+        <v>537.1052683063399</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431187</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>312.6943406142593</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5244230630205</v>
+        <v>502.5559668112513</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475136</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,7 +9480,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>203.3790190010273</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9957,19 +9957,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>306.5431715280886</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>744.8605591506555</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>264.4640783312022</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,16 +10428,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>569.9919810238539</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,25 +10665,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>199.6102425680207</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,13 +11139,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L42" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11379,13 +11379,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>61.34511236879273</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>160.9217358817891</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>92.91008002154905</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>28.52149150869167</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>69.79576221908117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>27.51732512035709</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>39.33153911500573</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>18.77647999363343</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1128929.20574374</v>
+        <v>1128628.43193686</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1128929.20574374</v>
+        <v>1128628.43193686</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="C2" t="n">
         <v>144265.7424746855</v>
@@ -26326,34 +26326,34 @@
         <v>127487.2187395205</v>
       </c>
       <c r="G2" t="n">
-        <v>144265.7424746855</v>
+        <v>144265.7424746854</v>
       </c>
       <c r="H2" t="n">
-        <v>144265.7424746855</v>
+        <v>144265.7424746854</v>
       </c>
       <c r="I2" t="n">
         <v>144265.7424746854</v>
       </c>
       <c r="J2" t="n">
+        <v>144265.7424746852</v>
+      </c>
+      <c r="K2" t="n">
         <v>144265.7424746851</v>
       </c>
-      <c r="K2" t="n">
-        <v>144265.7424746852</v>
-      </c>
       <c r="L2" t="n">
+        <v>144265.7424746856</v>
+      </c>
+      <c r="M2" t="n">
         <v>144265.7424746853</v>
-      </c>
-      <c r="M2" t="n">
-        <v>144265.7424746854</v>
       </c>
       <c r="N2" t="n">
         <v>144265.7424746855</v>
       </c>
       <c r="O2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746853</v>
       </c>
       <c r="P2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746853</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062215</v>
+        <v>22558.42953401372</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728564</v>
+        <v>62456.24177539695</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081124</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892388</v>
+        <v>184487.2052585818</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892388</v>
+        <v>184487.2052585818</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26442,10 +26442,10 @@
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713761</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-282699.3117464227</v>
+        <v>-279250.1873527683</v>
       </c>
       <c r="C6" t="n">
-        <v>-100494.363454567</v>
+        <v>-105391.5303187134</v>
       </c>
       <c r="D6" t="n">
-        <v>-105933.9054303914</v>
+        <v>-113670.1946537829</v>
       </c>
       <c r="E6" t="n">
-        <v>-124810.1509502589</v>
+        <v>-125019.8824969484</v>
       </c>
       <c r="F6" t="n">
-        <v>-12687.5894762143</v>
+        <v>-12897.32102290382</v>
       </c>
       <c r="G6" t="n">
-        <v>-96077.0573849926</v>
+        <v>-96077.05738499269</v>
       </c>
       <c r="H6" t="n">
-        <v>-48651.73184831065</v>
+        <v>-48651.73184831068</v>
       </c>
       <c r="I6" t="n">
         <v>-48651.73184831068</v>
       </c>
       <c r="J6" t="n">
-        <v>-261693.6494455964</v>
+        <v>-255177.3642910231</v>
       </c>
       <c r="K6" t="n">
         <v>-54891.50025109389</v>
       </c>
       <c r="L6" t="n">
-        <v>-110074.0891857149</v>
+        <v>-114122.926396187</v>
       </c>
       <c r="M6" t="n">
-        <v>-90852.56130793376</v>
+        <v>-91904.25631912204</v>
       </c>
       <c r="N6" t="n">
-        <v>-48651.73184831065</v>
+        <v>-48651.73184831062</v>
       </c>
       <c r="O6" t="n">
-        <v>-76419.4258910819</v>
+        <v>-76419.42589108198</v>
       </c>
       <c r="P6" t="n">
-        <v>-48651.73184831068</v>
+        <v>-48651.73184831064</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095196</v>
+        <v>844.4391950293129</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660705</v>
+        <v>78.07030221924619</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155133</v>
+        <v>17.58004954287424</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773706</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.1268713042802</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>179.7878791974819</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>124.8066548966775</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343774</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925712</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>32.53924269580699</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>35.24856299684654</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>267.5208572532729</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>195.333689620014</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627269</v>
+        <v>124.5704364758585</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>46.07200358383432</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>59.31082470035102</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>218.3916590793049</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.94919819618843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>157.2771208304321</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>100.6178891586625</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>28.01250026485263</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,22 +28980,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29217,23 +29217,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,25 +29299,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29457,7 +29457,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L28" t="n">
         <v>93.99127447431646</v>
@@ -29466,7 +29466,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>30.27223765901232</v>
+      </c>
+      <c r="Q29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566148</v>
+        <v>81.10808140892937</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000711</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861253796</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000711</v>
+        <v>76.79385455030928</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -30165,11 +30165,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>35.71049010668768</v>
+      </c>
+      <c r="K37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.0125002648524</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,16 +30402,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>35.71049010668816</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,10 +30645,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>490.6602026584867</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>209.5270473953693</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>373.0011178946825</v>
       </c>
       <c r="O3" t="n">
-        <v>273.7241842790241</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="O5" t="n">
-        <v>174.9513468641458</v>
+        <v>155.7081677729448</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344364</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>413.4232554596699</v>
+        <v>451.7331554521733</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>582.1523102088539</v>
+        <v>417.1838539570846</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529087</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039242</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36677,19 +36677,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>216.4828246711704</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>659.4884462964889</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36753,7 +36753,7 @@
         <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36762,7 +36762,7 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700718</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449822</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114478</v>
+        <v>525.5925267547157</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792979</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227378</v>
+        <v>75.16693519537689</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>484.6198681696872</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.261969827912</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993479</v>
+        <v>195.4415774595201</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.5654145947302</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106683</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102236</v>
+        <v>80.25061856046176</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>107.2231205187088</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.46926427500488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L42" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37941,10 +37941,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
